--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_GiaThanh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="27" r:id="rId1"/>
@@ -703,22 +703,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,6 +725,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
@@ -1081,43 +1081,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1162,58 +1162,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1238,23 +1238,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1339,7 +1339,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1515,7 +1515,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2833,6 +2833,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2844,13 +2851,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2894,43 +2894,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2975,58 +2975,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3051,23 +3051,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3150,7 +3150,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3179,7 +3179,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3326,7 +3326,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4644,6 +4644,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4655,13 +4662,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4705,43 +4705,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4786,58 +4786,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4862,23 +4862,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5305,7 +5305,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5334,7 +5334,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6623,11 +6623,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -6641,6 +6636,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6684,43 +6684,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6765,58 +6765,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6841,23 +6841,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6883,7 +6883,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6914,7 +6914,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6943,7 +6943,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6972,7 +6972,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7001,7 +7001,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7059,7 +7059,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7090,7 +7090,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7148,7 +7148,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8408,6 +8408,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8419,13 +8426,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -703,7 +703,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,21 +740,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1081,43 +1081,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1162,58 +1162,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1238,23 +1238,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1339,7 +1339,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1515,7 +1515,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2833,13 +2833,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2851,6 +2844,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2894,43 +2894,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2975,58 +2975,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3051,23 +3051,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3150,7 +3150,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3179,7 +3179,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3326,7 +3326,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4644,13 +4644,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4662,6 +4655,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4672,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4705,43 +4705,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4786,58 +4786,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4862,23 +4862,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5305,7 +5305,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5334,7 +5334,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6623,6 +6623,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -6636,11 +6641,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6651,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6684,43 +6684,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6765,58 +6765,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6841,49 +6841,77 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="42">
+        <v>44271</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44273</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="44">
+        <v>860906041283190</v>
+      </c>
       <c r="F6" s="56"/>
-      <c r="G6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="I6" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>95</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>80</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6895,26 +6923,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="42">
+        <v>44271</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44273</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868345031036551</v>
+      </c>
       <c r="F7" s="56"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="I7" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="48"/>
+      <c r="L7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6924,26 +6978,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44267</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="44">
+        <v>868183033866547</v>
+      </c>
       <c r="F8" s="56"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="I8" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>80</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6953,26 +7035,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="B9" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44267</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="44">
+        <v>867857039916205</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="47"/>
+      <c r="O9" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>80</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6982,26 +7092,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="B10" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44267</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="44">
+        <v>867717030628326</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>75</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="O10" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7011,26 +7149,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C11" s="42">
+        <v>44267</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="44">
+        <v>868183033790598</v>
+      </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="I11" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>75</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7040,26 +7206,52 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C12" s="42">
+        <v>44267</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="44">
+        <v>868183034533054</v>
+      </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>64</v>
+      </c>
       <c r="J12" s="45"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="L12" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>83</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
+      <c r="O12" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7071,26 +7263,54 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="42">
+        <v>44271</v>
+      </c>
+      <c r="C13" s="42">
+        <v>44273</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="44">
+        <v>868183033815619</v>
+      </c>
       <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
+      <c r="G13" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>75</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7100,26 +7320,54 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="42">
+        <v>44271</v>
+      </c>
+      <c r="C14" s="42">
+        <v>44273</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="44">
+        <v>868183033836391</v>
+      </c>
       <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="G14" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="I14" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>75</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
+      <c r="O14" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7148,7 +7396,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7177,7 +7425,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7296,7 +7544,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -7360,7 +7608,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -7637,7 +7885,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -7701,7 +7949,7 @@
       </c>
       <c r="V33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W33" s="16"/>
     </row>
@@ -7765,7 +8013,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -7797,7 +8045,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -7829,7 +8077,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -8408,13 +8656,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8426,6 +8667,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
